--- a/data/out/wiki/men/uefa/wc/third_teams_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_uefa_men.xlsx
@@ -461,10 +461,8 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1986</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -479,10 +477,8 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1986</v>
       </c>
       <c r="C3" t="n">
         <v>33</v>
@@ -497,10 +493,8 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1986</v>
       </c>
       <c r="C4" t="n">
         <v>38</v>
@@ -515,10 +509,8 @@
           <t>Northern Ireland</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1986</v>
       </c>
       <c r="C5" t="n">
         <v>36</v>
@@ -533,10 +525,8 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1986</v>
       </c>
       <c r="C6" t="n">
         <v>38</v>
@@ -551,10 +541,8 @@
           <t>England</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1986</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
@@ -569,10 +557,8 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1986</v>
       </c>
       <c r="C8" t="n">
         <v>33</v>
@@ -587,10 +573,8 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1986</v>
       </c>
       <c r="C9" t="n">
         <v>25</v>
@@ -605,10 +589,8 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1986</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -623,10 +605,8 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B11" t="n">
+        <v>1986</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -641,10 +621,8 @@
           <t>Algeria</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(1986,)</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1986</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,14 +538,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1986</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>1986</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>1986</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -629,6 +629,438 @@
       </c>
       <c r="D12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C17" t="n">
+        <v>54</v>
+      </c>
+      <c r="D17" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C19" t="n">
+        <v>84</v>
+      </c>
+      <c r="D19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C20" t="n">
+        <v>70</v>
+      </c>
+      <c r="D20" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C23" t="n">
+        <v>94</v>
+      </c>
+      <c r="D23" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C24" t="n">
+        <v>106</v>
+      </c>
+      <c r="D24" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C26" t="n">
+        <v>89</v>
+      </c>
+      <c r="D26" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C32" t="n">
+        <v>37</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C35" t="n">
+        <v>49</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C36" t="n">
+        <v>67</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C37" t="n">
+        <v>70</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C39" t="n">
+        <v>32</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
